--- a/化学生命工学実験3/生命工学実験/遺伝子組み換え実験/data/result.xlsx
+++ b/化学生命工学実験3/生命工学実験/遺伝子組み換え実験/data/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurayusaku/univ/latex/化学生命工学実験3/遺伝子組み換え実験/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutteee/univ/latex/化学生命工学実験3/生命工学実験/遺伝子組み換え実験/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A017750-9AD7-6B45-A69C-704528A6144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5186BD-AC55-DB4B-9AFC-E6FD95F82730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4CC62203-0F20-F140-A9E1-BC852EF2F9C7}"/>
+    <workbookView xWindow="3080" yWindow="3360" windowWidth="28800" windowHeight="17500" xr2:uid="{4CC62203-0F20-F140-A9E1-BC852EF2F9C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Ligation_befor</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,35 @@
   </si>
   <si>
     <t>P, G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限酵素処理</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイゲン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">コウソ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EGFP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GABA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,7 +612,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23783289588801401"/>
+                  <c:y val="-0.21309273840769904"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77815125038364363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17609125905568124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9181246047624818E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1614-3345-B6BE-3729BDC9ECE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2142727327"/>
+        <c:axId val="1294431503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2142727327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+                  <a:t>泳動距離</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t>(px)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1294431503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1294431503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>log(DNA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>の長さ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142727327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1139,6 +1674,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1172,6 +2223,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>462280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37BF410-4BB5-E8C8-1587-BDEC95FC0347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1477,20 +2564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DC78B9-E552-EA43-8813-6783BC137E0E}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>131</v>
       </c>
@@ -1510,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>145</v>
       </c>
@@ -1522,7 +2612,7 @@
         <v>0.90308998699194354</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>161</v>
       </c>
@@ -1534,7 +2624,7 @@
         <v>0.77815125038364363</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>174</v>
       </c>
@@ -1546,7 +2636,7 @@
         <v>0.69897000433601886</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>189</v>
       </c>
@@ -1558,7 +2648,7 @@
         <v>0.6020599913279624</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>207</v>
       </c>
@@ -1570,7 +2660,7 @@
         <v>0.47712125471966244</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>238</v>
       </c>
@@ -1582,7 +2672,7 @@
         <v>0.3010299956639812</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>258</v>
       </c>
@@ -1594,7 +2684,7 @@
         <v>0.17609125905568124</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>285</v>
       </c>
@@ -1606,47 +2696,272 @@
         <v>7.9181246047624818E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C16">
-        <v>196</v>
-      </c>
-      <c r="D16">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="F16">
+        <f t="shared" ref="F16" si="1">10^(-0.0061*B16+1.7707)</f>
+        <v>3.7592395401291743</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16" si="2">10^(-0.0061*C16+1.7707)</f>
+        <v>0.87236854936055963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17">
         <v>199</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17">
+        <f t="shared" ref="F17:F18" si="3">10^(-0.0061*B17+1.7707)</f>
+        <v>3.6041262864914358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C18">
         <v>200</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>7.0729404240457585</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G16:H18" si="4">10^(-0.0061*C18+1.7707)</f>
+        <v>3.5538574198607575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>194</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f>LOG(B24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>214</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C33" si="5">LOG(B25)</f>
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>0.69897000433601886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>287</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>0.6020599913279624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
+        <v>0.47712125471966244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>370</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
+        <v>0.3010299956639812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>406</v>
+      </c>
+      <c r="B31">
+        <v>1.5</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>0.17609125905568124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>437</v>
+      </c>
+      <c r="B32">
+        <v>1.2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>7.9181246047624818E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>459</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>328</v>
+      </c>
+      <c r="B37">
+        <v>297</v>
+      </c>
+      <c r="C37">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>452</v>
+      </c>
+      <c r="B38">
+        <v>324</v>
+      </c>
+      <c r="C38">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="C39">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <f>10^(-0.0037*A37+1.6799)</f>
+        <v>2.9261730085665736</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:C41" si="6">10^(-0.0037*B37+1.6799)</f>
+        <v>3.8106582339377306</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="6"/>
+        <v>2.9512092266663856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <f t="shared" ref="A42:C43" si="7">10^(-0.0037*A38+1.6799)</f>
+        <v>1.0174193661806046</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>3.0276104809231299</v>
+      </c>
+      <c r="C42">
+        <f>10^(-0.0037*C38+1.6799)</f>
+        <v>2.2279220921849086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>1.4305399808200658</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>